--- a/xlsx/法拉利恩佐_intext.xlsx
+++ b/xlsx/法拉利恩佐_intext.xlsx
@@ -29,31 +29,31 @@
     <t>法拉利</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_法拉利恩佐</t>
+    <t>政策_政策_混合动力车辆_法拉利恩佐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>汽車設計</t>
+    <t>汽车设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%B1%B1%E6%B8%85%E8%A1%8C</t>
   </si>
   <si>
-    <t>奧山清行</t>
+    <t>奥山清行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>超級跑車</t>
+    <t>超级跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E8%BD%AE%E9%A9%B1%E5%8A%A8</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/2004%E5%B9%B4%E5%8D%97%E4%BA%9E%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>2004年南亞海嘯</t>
+    <t>2004年南亚海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%B0%BC%E6%B3%95%E5%88%A9%E7%BA%B3</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%AD%E8%A8%88%E5%B8%AB</t>
   </si>
   <si>
-    <t>設計師</t>
+    <t>设计师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E6%96%B9%E7%A8%8B%E5%BC%8F%E8%B3%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>一級方程式賽車</t>
+    <t>一级方程式赛车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%85%8B%E5%B0%94%C2%B7%E8%88%92%E9%A9%AC%E8%B5%AB</t>
